--- a/public/uploads/example.xlsx
+++ b/public/uploads/example.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joao/Sites/school/public/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37560" yWindow="6400" windowWidth="24480" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="-33340" yWindow="8420" windowWidth="24480" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,6 @@
     <t>School</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
@@ -63,6 +57,12 @@
   </si>
   <si>
     <t>Room 7</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Classroom</t>
   </si>
 </sst>
 </file>
@@ -467,128 +467,128 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>2323</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2424</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1313</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2525</v>
       </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>6767</v>
       </c>
       <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>6565</v>
       </c>
       <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
